--- a/실무_엑셀_예제_파일/Chapter07/07-023.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87157FA3-8231-4A7B-BCA2-C3254FB177F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90905AC-D055-429F-BCD7-7F874F340746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="600" windowWidth="19872" windowHeight="12900" xr2:uid="{651CAEE5-9D63-4AE3-989C-95D9D5191D7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{651CAEE5-9D63-4AE3-989C-95D9D5191D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="웰빙리얼" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -635,24 +635,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B279841D-1FD4-4752-A8DC-AFF10A749EF5}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="11.09765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.9140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="11.08203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="8"/>
+    <col min="10" max="10" width="14.6640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:9" ht="24.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
@@ -661,8 +663,8 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,7 +687,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <f t="array" ref="A5:A18">--(B5:B18=I4)*(C5:C18=I5)</f>
         <v>0</v>
@@ -712,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>0</v>
       </c>
@@ -732,7 +734,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>0</v>
       </c>
@@ -759,7 +761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>0</v>
       </c>
@@ -786,7 +788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>0</v>
       </c>
@@ -806,7 +808,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>0</v>
       </c>
@@ -826,7 +828,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>0</v>
       </c>
@@ -846,7 +848,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>0</v>
       </c>
@@ -866,7 +868,7 @@
         <v>178000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -886,7 +888,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -906,7 +908,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -926,7 +928,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>0</v>
       </c>
@@ -946,7 +948,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -966,7 +968,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>0</v>
       </c>
